--- a/src/main/java/app/netlify/spkisp_ramdani/assets/isp_dataset_2.xlsx
+++ b/src/main/java/app/netlify/spkisp_ramdani/assets/isp_dataset_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Kuliah\TAPrep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\private\spkisp_ramdani\src\main\java\app\netlify\spkisp_ramdani\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8409EB-D349-41D8-8EC8-BA7A4FE180E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D2869-C1F3-48F5-9729-45AAD89090D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1678306B-962E-44CA-BE1B-5C7B38B57A27}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -382,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,7 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -709,7 +707,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1289,9 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1">
         <v>45436</v>
@@ -1321,6 +1322,9 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
       <c r="J22" s="1">
         <v>45436</v>
       </c>
@@ -1347,6 +1351,9 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
       <c r="I23" t="s">
         <v>42</v>
       </c>
@@ -1376,6 +1383,9 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
       <c r="I24" t="s">
         <v>43</v>
       </c>
@@ -1402,6 +1412,9 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
       <c r="I25" t="s">
         <v>42</v>
       </c>
@@ -1454,13 +1467,13 @@
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>405000</v>
       </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>50</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -1489,10 +1502,10 @@
       <c r="F30" s="4">
         <v>480000</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -1518,13 +1531,13 @@
       <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>515000</v>
       </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>100</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -1550,13 +1563,13 @@
       <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>460000</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>50</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -1582,13 +1595,13 @@
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>505000</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
         <v>100</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -1614,13 +1627,13 @@
       <c r="E34">
         <v>10</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>555000</v>
       </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>100</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1646,13 +1659,13 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>620000</v>
       </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>50</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -1678,13 +1691,13 @@
       <c r="E36">
         <v>10</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>730000</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>100</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -1710,13 +1723,13 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>360000</v>
       </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>50</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -1742,13 +1755,13 @@
       <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>545000</v>
       </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>50</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -1774,13 +1787,13 @@
       <c r="E39">
         <v>10</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>895000</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>100</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -1806,13 +1819,13 @@
       <c r="E40">
         <v>5</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>505000</v>
       </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>50</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -1838,13 +1851,13 @@
       <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>515000</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>50</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -1870,13 +1883,13 @@
       <c r="E42">
         <v>10</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>590000</v>
       </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>100</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -1902,13 +1915,13 @@
       <c r="E43">
         <v>5</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>615000</v>
       </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>100</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -1934,13 +1947,13 @@
       <c r="E44">
         <v>10</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>965000</v>
       </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>100</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -1960,13 +1973,13 @@
       <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>279000</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>20</v>
       </c>
       <c r="J45" s="1">
@@ -1986,13 +1999,13 @@
       <c r="C46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>339000</v>
       </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>30</v>
       </c>
       <c r="J46" s="1">
@@ -2009,13 +2022,13 @@
       <c r="C47" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>459000</v>
       </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>50</v>
       </c>
       <c r="J47" s="1">
@@ -2032,13 +2045,13 @@
       <c r="C48" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>709000</v>
       </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>100</v>
       </c>
       <c r="J48" s="1">
@@ -2055,13 +2068,13 @@
       <c r="C49" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>779000</v>
       </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>200</v>
       </c>
       <c r="J49" s="1">
@@ -2084,13 +2097,13 @@
       <c r="E50">
         <v>3</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50">
         <v>250000</v>
       </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>50</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -2116,13 +2129,13 @@
       <c r="E51">
         <v>10</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>375000</v>
       </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>150</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -2148,13 +2161,13 @@
       <c r="E52">
         <v>20</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52">
         <v>575000</v>
       </c>
-      <c r="G52" s="5">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>250</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -2180,13 +2193,13 @@
       <c r="E53">
         <v>40</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>700000</v>
       </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>300</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -2212,13 +2225,13 @@
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54">
         <v>2250000</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54">
         <v>12</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54">
         <v>50</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -2244,13 +2257,13 @@
       <c r="E55">
         <v>10</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55">
         <v>3375000</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55">
         <v>12</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55">
         <v>150</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -2276,13 +2289,13 @@
       <c r="E56">
         <v>20</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>5175000</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
         <v>12</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56">
         <v>250</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -2308,13 +2321,13 @@
       <c r="E57">
         <v>40</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>6300000</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>12</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>300</v>
       </c>
       <c r="I57" s="2" t="s">
